--- a/Stiff/TestBook.xlsx
+++ b/Stiff/TestBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,8 +365,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -383,8 +383,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -400,8 +400,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
